--- a/input/cello-campB-time-table.xlsx
+++ b/input/cello-campB-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AA7477-41CB-49DC-9A3E-5EB25B66249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908B1F5-E634-4D35-A5CA-8DBF176DFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" activeTab="4" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
   <si>
     <t xml:space="preserve">Faculty Rehearsal </t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Lunch</t>
-  </si>
-  <si>
-    <t>Workshop</t>
   </si>
   <si>
     <t>Lunch
@@ -118,23 +115,11 @@
 (Room Liya)</t>
   </si>
   <si>
-    <t>C3  Rehearsal with pianist
-(Room Vinnci)</t>
-  </si>
-  <si>
     <t xml:space="preserve">C1 Rehearsal with pianist
 (Room Vinnci) </t>
   </si>
   <si>
-    <t>C5   Rehearsal with pianist 
-(Room Jason)</t>
-  </si>
-  <si>
     <t>C4 Rehearsal with pianist
-(Room Jason)</t>
-  </si>
-  <si>
-    <t>C2  Rehearsal with pianist
 (Room Jason)</t>
   </si>
   <si>
@@ -154,21 +139,6 @@
   <si>
     <t>Cello MasterClass
 (Room Pitor)</t>
-  </si>
-  <si>
-    <t>C2 Lesson with Pitor SKWERES &amp; pianist</t>
-  </si>
-  <si>
-    <t>C3 Lesson with Pitor SKWERES &amp; pianist</t>
-  </si>
-  <si>
-    <t>C1 Lesson with Pitor SKWERES &amp; pianist</t>
-  </si>
-  <si>
-    <t>C4  Lesson with Pitor SKWERES &amp; pianist</t>
-  </si>
-  <si>
-    <t>C5  Lesson with Pitor SKWERES &amp; pianist</t>
   </si>
   <si>
     <t>Time</t>
@@ -195,6 +165,46 @@
   <si>
     <t>Yoga Class
 (Room Yoga)</t>
+  </si>
+  <si>
+    <t>Cello Regulation / Maintance Workshop
+(Room TanCong)</t>
+  </si>
+  <si>
+    <t>C2 Private Lesson with Pitor SKWERES &amp; pianist</t>
+  </si>
+  <si>
+    <t>C3 Private Lesson with Pitor SKWERES &amp; pianist</t>
+  </si>
+  <si>
+    <t>C1 Private Lesson with Pitor SKWERES &amp; pianist</t>
+  </si>
+  <si>
+    <t>C5 Private Lesson with Pitor SKWERES &amp; pianist</t>
+  </si>
+  <si>
+    <t>C4 Private Lesson with Pitor SKWERES &amp; pianist</t>
+  </si>
+  <si>
+    <t>C5 Rehearsal with pianist 
+(Room Jason)</t>
+  </si>
+  <si>
+    <t>C3 Rehearsal with pianist
+(Room Vinnci)</t>
+  </si>
+  <si>
+    <t>C2 Rehearsal with pianist
+(Room Jason)</t>
+  </si>
+  <si>
+    <t>Group 4, 7, 8, 9  Group Activity
+(Room Group Activity)</t>
+  </si>
+  <si>
+    <t>Group 1, 2, 3, 5, 6 
+Group Activity
+(Room Group Activity)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,18 +520,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,13 +541,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,19 +562,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -596,6 +604,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,7 +619,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,13 +640,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +981,7 @@
   <dimension ref="A1:G993"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="D19" sqref="D19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -979,18 +992,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="54" t="s">
         <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1001,68 +1014,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -1070,7 +1083,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -1081,7 +1094,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1090,33 +1103,33 @@
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="12"/>
+      <c r="F11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -1149,75 +1162,75 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>10</v>
+      <c r="G19" s="31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -1247,32 +1260,32 @@
         <v>0.61458333333333304</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -1280,7 +1293,7 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="13"/>
@@ -1291,7 +1304,7 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="13"/>
@@ -1302,27 +1315,27 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="12"/>
+      <c r="C27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -1330,7 +1343,7 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -1341,7 +1354,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -1350,12 +1363,12 @@
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -1371,10 +1384,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -1435,8 +1448,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2415,11 +2428,19 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -2436,19 +2457,11 @@
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2459,7 +2472,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2470,18 +2483,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="54" t="s">
         <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2490,75 +2503,75 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="F7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2569,7 +2582,7 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2579,34 +2592,34 @@
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="20" t="s">
         <v>8</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -2614,7 +2627,7 @@
         <v>0.51041666666666696</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2625,7 +2638,7 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2636,7 +2649,7 @@
         <v>0.53125</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2692,29 +2705,29 @@
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2725,7 +2738,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -2735,33 +2748,33 @@
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -2769,7 +2782,7 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="13"/>
@@ -2780,7 +2793,7 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="13"/>
@@ -2791,27 +2804,27 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="12"/>
+      <c r="C27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -2819,7 +2832,7 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -2830,7 +2843,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -2839,12 +2852,12 @@
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -2859,10 +2872,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -2917,8 +2930,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -3891,6 +3904,32 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="E27:E30"/>
@@ -3899,32 +3938,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3935,7 +3948,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3946,18 +3959,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="54" t="s">
         <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3966,69 +3979,69 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="31" t="s">
         <v>7</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -4057,32 +4070,32 @@
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="20" t="s">
         <v>10</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -4122,67 +4135,67 @@
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -4211,33 +4224,33 @@
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -4245,7 +4258,7 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="13"/>
@@ -4256,7 +4269,7 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="13"/>
@@ -4267,27 +4280,27 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="12"/>
+      <c r="C27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -4295,7 +4308,7 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -4306,7 +4319,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -4315,12 +4328,12 @@
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4335,10 +4348,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -4393,8 +4406,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -5363,11 +5376,26 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -5377,26 +5405,11 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5407,7 +5420,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5418,18 +5431,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="54" t="s">
         <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5438,68 +5451,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="B7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -5538,22 +5551,22 @@
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="46" t="s">
+      <c r="B11" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -5592,69 +5605,69 @@
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>7</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -5662,7 +5675,7 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5673,7 +5686,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -5683,33 +5696,33 @@
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
@@ -5717,7 +5730,7 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="13"/>
@@ -5728,7 +5741,7 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="13"/>
@@ -5739,27 +5752,27 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="12"/>
+      <c r="C27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -5767,7 +5780,7 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -5778,7 +5791,7 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
@@ -5787,12 +5800,12 @@
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -5807,10 +5820,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -5865,8 +5878,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -6835,26 +6848,6 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
     <mergeCell ref="B3:G6"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -6869,6 +6862,26 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6876,10 +6889,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5C3126-BF39-AC41-92CA-EC1B94451F2E}">
-  <dimension ref="A1:G991"/>
+  <dimension ref="A1:F991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="D27" sqref="D27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -6888,356 +6901,328 @@
     <col min="2" max="4" width="16.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="54" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>45</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="25"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="25"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>0.70833333333333304</v>
       </c>
@@ -7245,14 +7230,14 @@
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -7301,8 +7286,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -8269,25 +8254,23 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="16">
+    <mergeCell ref="B3:F6"/>
+    <mergeCell ref="B19:F22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B15:F18"/>
+    <mergeCell ref="B7:F14"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="B7:G14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B19:G22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8309,7 +8292,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -8317,317 +8300,317 @@
       <c r="A2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>19</v>
+      <c r="B2" s="49" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="49"/>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>16</v>
+      <c r="B6" s="51" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="51"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="51"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="51"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="51"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="51"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="51"/>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>4</v>
+      <c r="B14" s="52" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="53"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="53"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="53"/>
     </row>
     <row r="18" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="54"/>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.59375</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>5</v>
+      <c r="B20" s="51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="51"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="51"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="51"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>17</v>
+      <c r="B26" s="51" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="51"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>15</v>
+      <c r="B29" s="48" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="52"/>
+      <c r="B30" s="48"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="52"/>
+      <c r="B31" s="48"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>12</v>
+      <c r="B32" s="49" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="49"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="47"/>
+      <c r="B35" s="49"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="53" t="s">
-        <v>6</v>
+      <c r="B36" s="50" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="50"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.79166666666666297</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="50"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>0.80208333333333004</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="50"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>0.812499999999997</v>
       </c>
-      <c r="B40" s="53"/>
+      <c r="B40" s="50"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>0.82291666666666397</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>40</v>
+      <c r="B41" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>0.83333333333333104</v>
       </c>
-      <c r="B42" s="47"/>
+      <c r="B42" s="49"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>0.843749999999998</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="49"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>0.85416666666666496</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>41</v>
+      <c r="B44" s="48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>0.86458333333333204</v>
       </c>
-      <c r="B45" s="52"/>
+      <c r="B45" s="48"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>0.874999999999999</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="48"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>0.88541666666666596</v>
       </c>
-      <c r="B47" s="52"/>
+      <c r="B47" s="48"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B48" s="52"/>
+      <c r="B48" s="48"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>0.90625</v>
       </c>
-      <c r="B49" s="52"/>
+      <c r="B49" s="48"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B50" s="52"/>
+      <c r="B50" s="48"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="10"/>
@@ -9585,16 +9568,16 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/cello-campB-time-table.xlsx
+++ b/input/cello-campB-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7908B1F5-E634-4D35-A5CA-8DBF176DFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA2611-B916-49B4-A21F-F0826B1F9BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" activeTab="4" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="6" r:id="rId1"/>
@@ -167,10 +167,6 @@
 (Room Yoga)</t>
   </si>
   <si>
-    <t>Cello Regulation / Maintance Workshop
-(Room TanCong)</t>
-  </si>
-  <si>
     <t>C2 Private Lesson with Pitor SKWERES &amp; pianist</t>
   </si>
   <si>
@@ -205,6 +201,10 @@
     <t>Group 1, 2, 3, 5, 6 
 Group Activity
 (Room Group Activity)</t>
+  </si>
+  <si>
+    <t>Cello Regulation / Maintenance Workshop
+(Room TanCong)</t>
   </si>
 </sst>
 </file>
@@ -521,18 +521,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,10 +541,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,19 +565,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -604,9 +607,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,13 +619,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,7 +637,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,222 +1014,222 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1237,138 +1237,138 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -1384,10 +1384,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -1398,8 +1398,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1408,8 +1408,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1418,8 +1418,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1428,8 +1428,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1438,8 +1438,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1448,8 +1448,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2428,19 +2428,11 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -2457,11 +2449,19 @@
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2503,122 +2503,122 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2626,238 +2626,238 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="31"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -2872,10 +2872,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -2885,8 +2885,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
@@ -2894,8 +2894,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
@@ -2903,8 +2903,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
@@ -2912,8 +2912,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
@@ -2921,8 +2921,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
@@ -2930,8 +2930,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -3904,32 +3904,6 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="E27:E30"/>
@@ -3938,6 +3912,32 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="D27:D30"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3947,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADEB74B-B4BC-B14F-86A1-7CCF4603FE70}">
   <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3979,68 +3979,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4048,53 +4048,53 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="13" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4102,34 +4102,34 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -4181,20 +4181,20 @@
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4202,138 +4202,138 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4348,10 +4348,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -4361,8 +4361,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
@@ -4370,8 +4370,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
@@ -4379,8 +4379,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
@@ -4388,8 +4388,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
@@ -4397,8 +4397,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
@@ -4406,8 +4406,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -5376,26 +5376,11 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -5405,11 +5390,26 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5451,47 +5451,47 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -5501,7 +5501,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>10</v>
@@ -5518,34 +5518,34 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -5555,7 +5555,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>10</v>
@@ -5572,34 +5572,34 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -5651,22 +5651,22 @@
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5674,138 +5674,138 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="13"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="13"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -5820,10 +5820,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -5833,8 +5833,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
@@ -5842,8 +5842,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
@@ -5851,8 +5851,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
@@ -5860,8 +5860,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
@@ -5869,8 +5869,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
@@ -5878,8 +5878,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -6848,6 +6848,26 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="B3:G6"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -6862,26 +6882,6 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6891,7 +6891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5C3126-BF39-AC41-92CA-EC1B94451F2E}">
   <dimension ref="A1:F991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:D30"/>
     </sheetView>
   </sheetViews>
@@ -6922,43 +6922,43 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -7130,19 +7130,19 @@
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="27" t="s">
+      <c r="D23" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7150,77 +7150,77 @@
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -7234,10 +7234,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -7246,48 +7246,48 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -8255,13 +8255,6 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B3:F6"/>
-    <mergeCell ref="B19:F22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B15:F18"/>
@@ -8271,6 +8264,13 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B3:F6"/>
+    <mergeCell ref="B19:F22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8326,7 +8326,7 @@
       <c r="A6" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8334,49 +8334,49 @@
       <c r="A7" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="50"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="50"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="50"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="50"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="50"/>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8384,25 +8384,25 @@
       <c r="A15" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="52"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="52"/>
     </row>
     <row r="18" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="53"/>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -8416,7 +8416,7 @@
       <c r="A20" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8424,37 +8424,37 @@
       <c r="A21" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="51"/>
+      <c r="B21" s="50"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="50"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="51"/>
+      <c r="B23" s="50"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="51"/>
+      <c r="B24" s="50"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="51"/>
+      <c r="B25" s="50"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8462,19 +8462,19 @@
       <c r="A27" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="50"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="50"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="54" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8482,13 +8482,13 @@
       <c r="A30" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="54"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="54"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -8520,7 +8520,7 @@
       <c r="A36" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="55" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8528,25 +8528,25 @@
       <c r="A37" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="55"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.79166666666666297</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="55"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>0.80208333333333004</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="55"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>0.812499999999997</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="55"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -8572,7 +8572,7 @@
       <c r="A44" s="1">
         <v>0.85416666666666496</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="54" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8580,37 +8580,37 @@
       <c r="A45" s="1">
         <v>0.86458333333333204</v>
       </c>
-      <c r="B45" s="48"/>
+      <c r="B45" s="54"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>0.874999999999999</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="54"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>0.88541666666666596</v>
       </c>
-      <c r="B47" s="48"/>
+      <c r="B47" s="54"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B48" s="48"/>
+      <c r="B48" s="54"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>0.90625</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="54"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B50" s="48"/>
+      <c r="B50" s="54"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="10"/>
@@ -9568,16 +9568,16 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/cello-campB-time-table.xlsx
+++ b/input/cello-campB-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA2611-B916-49B4-A21F-F0826B1F9BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74B625-15FA-4256-A47A-92508970F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
   <si>
     <t xml:space="preserve">Faculty Rehearsal </t>
   </si>
@@ -135,10 +135,6 @@
   <si>
     <t>Cello MasterClass
 (Room Piotr)</t>
-  </si>
-  <si>
-    <t>Cello MasterClass
-(Room Pitor)</t>
   </si>
   <si>
     <t>Time</t>
@@ -521,18 +517,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,13 +537,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,19 +558,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -607,6 +600,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,7 +618,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,12 +637,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
@@ -1003,7 +999,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1014,222 +1010,222 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="31" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1237,138 +1233,138 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="E23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="13"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -1384,10 +1380,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -1398,8 +1394,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1408,8 +1404,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1418,8 +1414,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1428,8 +1424,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1438,8 +1434,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1448,8 +1444,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2428,11 +2424,19 @@
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -2449,19 +2453,11 @@
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2483,7 +2479,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
@@ -2494,7 +2490,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2503,122 +2499,122 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="18"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2626,238 +2622,238 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="E23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="13"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -2872,10 +2868,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -2885,8 +2881,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
@@ -2894,8 +2890,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
@@ -2903,8 +2899,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
@@ -2912,8 +2908,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
@@ -2921,8 +2917,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
@@ -2930,8 +2926,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -3904,6 +3900,32 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="E27:E30"/>
@@ -3912,32 +3934,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="D27:D30"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3947,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADEB74B-B4BC-B14F-86A1-7CCF4603FE70}">
   <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:G6"/>
     </sheetView>
   </sheetViews>
@@ -3959,7 +3955,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
@@ -3970,7 +3966,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3979,68 +3975,68 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4048,53 +4044,53 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4102,34 +4098,34 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -4181,20 +4177,20 @@
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4202,138 +4198,138 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="E23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="13"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -4348,10 +4344,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -4361,8 +4357,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
@@ -4370,8 +4366,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
@@ -4379,8 +4375,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
@@ -4388,8 +4384,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
@@ -4397,8 +4393,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
@@ -4406,8 +4402,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -5376,11 +5372,26 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="B3:G6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B15:G18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="G27:G30"/>
@@ -5390,26 +5401,11 @@
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B15:G18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5431,7 +5427,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
@@ -5442,7 +5438,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5451,47 +5447,47 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -5501,7 +5497,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>10</v>
@@ -5518,34 +5514,34 @@
       <c r="A8" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -5555,7 +5551,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>10</v>
@@ -5572,34 +5568,34 @@
       <c r="A12" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -5651,22 +5647,22 @@
       <c r="A19" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5674,138 +5670,138 @@
       <c r="A20" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="28" t="s">
+      <c r="E23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="13"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -5820,10 +5816,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -5833,8 +5829,8 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
@@ -5842,8 +5838,8 @@
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
@@ -5851,8 +5847,8 @@
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
@@ -5860,8 +5856,8 @@
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
@@ -5869,8 +5865,8 @@
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
@@ -5878,8 +5874,8 @@
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
@@ -6848,26 +6844,6 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
     <mergeCell ref="B3:G6"/>
     <mergeCell ref="B15:G18"/>
     <mergeCell ref="B11:B14"/>
@@ -6882,6 +6858,26 @@
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D7:D10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6891,8 +6887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5C3126-BF39-AC41-92CA-EC1B94451F2E}">
   <dimension ref="A1:F991"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D30"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -6903,7 +6899,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
@@ -6914,7 +6910,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -6922,43 +6918,43 @@
       <c r="A3" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -7089,7 +7085,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -7130,19 +7126,19 @@
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7150,77 +7146,77 @@
       <c r="A24" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
@@ -7234,10 +7230,10 @@
       <c r="A32" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -7246,48 +7242,48 @@
       <c r="A33" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -8255,6 +8251,13 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B3:F6"/>
+    <mergeCell ref="B19:F22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="B15:F18"/>
@@ -8264,13 +8267,6 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="F27:F30"/>
-    <mergeCell ref="B3:F6"/>
-    <mergeCell ref="B19:F22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8292,7 +8288,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -8300,7 +8296,7 @@
       <c r="A2" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8308,25 +8304,25 @@
       <c r="A3" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="50"/>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8334,49 +8330,49 @@
       <c r="A7" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="52"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="52"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="52"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8384,25 +8380,25 @@
       <c r="A15" s="1">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="54"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="52"/>
+      <c r="B16" s="54"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="54"/>
     </row>
     <row r="18" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="55"/>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -8416,7 +8412,7 @@
       <c r="A20" s="1">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="52" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8424,37 +8420,37 @@
       <c r="A21" s="1">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>0.625</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="52" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8462,19 +8458,19 @@
       <c r="A27" s="1">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="49" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8482,19 +8478,19 @@
       <c r="A30" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="49"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="49"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="50" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8502,25 +8498,25 @@
       <c r="A33" s="1">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="50"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>0.749999999999997</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="50"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="51" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8528,89 +8524,89 @@
       <c r="A37" s="1">
         <v>0.781249999999996</v>
       </c>
-      <c r="B37" s="55"/>
+      <c r="B37" s="51"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.79166666666666297</v>
       </c>
-      <c r="B38" s="55"/>
+      <c r="B38" s="51"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>0.80208333333333004</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="51"/>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>0.812499999999997</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="51"/>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>0.82291666666666397</v>
       </c>
-      <c r="B41" s="49" t="s">
-        <v>31</v>
+      <c r="B41" s="50" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>0.83333333333333104</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="50"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>0.843749999999998</v>
       </c>
-      <c r="B43" s="49"/>
+      <c r="B43" s="50"/>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>0.85416666666666496</v>
       </c>
-      <c r="B44" s="54" t="s">
-        <v>32</v>
+      <c r="B44" s="49" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>0.86458333333333204</v>
       </c>
-      <c r="B45" s="54"/>
+      <c r="B45" s="49"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>0.874999999999999</v>
       </c>
-      <c r="B46" s="54"/>
+      <c r="B46" s="49"/>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>0.88541666666666596</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="49"/>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B48" s="54"/>
+      <c r="B48" s="49"/>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>0.90625</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="49"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B50" s="54"/>
+      <c r="B50" s="49"/>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="10"/>
@@ -9568,16 +9564,16 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/cello-campB-time-table.xlsx
+++ b/input/cello-campB-time-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74B625-15FA-4256-A47A-92508970F3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA4A92-81F4-45A3-AE25-8838C655AB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{F2BB48B4-7D7C-49F7-8C87-D227621DCE6E}"/>
   </bookViews>
@@ -115,10 +115,6 @@
 (Room Liya)</t>
   </si>
   <si>
-    <t xml:space="preserve">C1 Rehearsal with pianist
-(Room Vinnci) </t>
-  </si>
-  <si>
     <t>C4 Rehearsal with pianist
 (Room Jason)</t>
   </si>
@@ -128,13 +124,6 @@
   </si>
   <si>
     <t>Group 4, 7, 8, 9  Acting Class (Room Acting Class)</t>
-  </si>
-  <si>
-    <t>Pitor SWKERES</t>
-  </si>
-  <si>
-    <t>Cello MasterClass
-(Room Piotr)</t>
   </si>
   <si>
     <t>Time</t>
@@ -182,10 +171,6 @@
 (Room Jason)</t>
   </si>
   <si>
-    <t>C3 Rehearsal with pianist
-(Room Vinnci)</t>
-  </si>
-  <si>
     <t>C2 Rehearsal with pianist
 (Room Jason)</t>
   </si>
@@ -201,6 +186,21 @@
   <si>
     <t>Cello Regulation / Maintenance Workshop
 (Room TanCong)</t>
+  </si>
+  <si>
+    <t>Cello MasterClass by Piotr SKWERES
+(Room Piotr)</t>
+  </si>
+  <si>
+    <t>C3 Rehearsal with pianist
+(Room Vincci)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1 Rehearsal with pianist
+(Room Vincci) </t>
+  </si>
+  <si>
+    <t>Piotr SWKERES</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:G993"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -988,18 +988,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1011,7 +1011,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -1063,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>9</v>
@@ -1117,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>10</v>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>6</v>
@@ -1273,10 +1273,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>21</v>
@@ -1327,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1451,17 +1451,13 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>0.79166666666666197</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -2468,7 +2464,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2479,18 +2475,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2500,7 +2496,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -2549,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>6</v>
@@ -2603,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>6</v>
@@ -2705,7 +2701,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>10</v>
@@ -2762,10 +2758,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>21</v>
@@ -2816,7 +2812,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -2932,16 +2928,12 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>0.79166666666666197</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
@@ -3944,7 +3936,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3955,18 +3947,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -3976,7 +3968,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -4028,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>8</v>
@@ -4184,7 +4176,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31" t="s">
@@ -4238,10 +4230,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>21</v>
@@ -4292,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -4408,14 +4400,10 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>0.79166666666666197</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
@@ -5416,7 +5404,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5427,18 +5415,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5448,7 +5436,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -5497,7 +5485,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>10</v>
@@ -5551,7 +5539,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>10</v>
@@ -5710,10 +5698,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>21</v>
@@ -5764,7 +5752,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -5880,14 +5868,10 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>0.79166666666666197</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
@@ -6888,7 +6872,7 @@
   <dimension ref="A1:F991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -6899,18 +6883,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -6961,7 +6945,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -7085,7 +7069,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -7133,10 +7117,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="27" t="s">
         <v>21</v>
@@ -7183,7 +7167,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -7287,14 +7271,10 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="1">
-        <v>0.79166666666666197</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="1">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
@@ -8288,7 +8268,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10"/>
     </row>
@@ -8549,7 +8529,7 @@
         <v>0.82291666666666397</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -8569,7 +8549,7 @@
         <v>0.85416666666666496</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
